--- a/вход.xlsx
+++ b/вход.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\documents\git\elibarser\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7AA060EA-85CC-4A3A-9248-AFE67D54A48E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C298D35-6991-4DF1-A435-EEDB1406816F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="-15255" windowWidth="31575" windowHeight="12150" xr2:uid="{0F00C925-6EFA-4CBD-962B-18C6F01F1F7F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0F00C925-6EFA-4CBD-962B-18C6F01F1F7F}"/>
   </bookViews>
   <sheets>
     <sheet name="вход" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="247">
   <si>
     <t>Фамилия</t>
   </si>
@@ -82,13 +82,706 @@
   </si>
   <si>
     <t>Студент бакалавриата</t>
+  </si>
+  <si>
+    <t>Данил</t>
+  </si>
+  <si>
+    <t>Комлев</t>
+  </si>
+  <si>
+    <t>Виктор</t>
+  </si>
+  <si>
+    <t>Евгеньевич</t>
+  </si>
+  <si>
+    <t>Абакумова</t>
+  </si>
+  <si>
+    <t>Анастасия</t>
+  </si>
+  <si>
+    <t>Владимировна</t>
+  </si>
+  <si>
+    <t>Авдеева</t>
+  </si>
+  <si>
+    <t>Игоревна</t>
+  </si>
+  <si>
+    <t>Бондарев</t>
+  </si>
+  <si>
+    <t>Максим</t>
+  </si>
+  <si>
+    <t>Александрович</t>
+  </si>
+  <si>
+    <t>Дацюк</t>
+  </si>
+  <si>
+    <t>Полина</t>
+  </si>
+  <si>
+    <t>Сергеевна</t>
+  </si>
+  <si>
+    <t>Лисин</t>
+  </si>
+  <si>
+    <t>Антон</t>
+  </si>
+  <si>
+    <t>Ященко</t>
+  </si>
+  <si>
+    <t>Александр</t>
+  </si>
+  <si>
+    <t>Игоревич</t>
+  </si>
+  <si>
+    <t>Болотин</t>
+  </si>
+  <si>
+    <t>Кирилл</t>
+  </si>
+  <si>
+    <t>Крайкин</t>
+  </si>
+  <si>
+    <t>Андрей</t>
+  </si>
+  <si>
+    <t>Петрович</t>
+  </si>
+  <si>
+    <t>Батманова</t>
+  </si>
+  <si>
+    <t>Алиса</t>
+  </si>
+  <si>
+    <t>Николаевна</t>
+  </si>
+  <si>
+    <t>Бабошкин</t>
+  </si>
+  <si>
+    <t>Павел</t>
+  </si>
+  <si>
+    <t>Павлович</t>
+  </si>
+  <si>
+    <t>Павлютин</t>
+  </si>
+  <si>
+    <t>Матвей</t>
+  </si>
+  <si>
+    <t>Дмитриевич</t>
+  </si>
+  <si>
+    <t>Табачкова</t>
+  </si>
+  <si>
+    <t>Ксения</t>
+  </si>
+  <si>
+    <t>Олеговна</t>
+  </si>
+  <si>
+    <t>Башков</t>
+  </si>
+  <si>
+    <t>Дмитрий</t>
+  </si>
+  <si>
+    <t>Юрьевич</t>
+  </si>
+  <si>
+    <t>Синицин</t>
+  </si>
+  <si>
+    <t>Вячеславович</t>
+  </si>
+  <si>
+    <t>Баранова</t>
+  </si>
+  <si>
+    <t>Арина</t>
+  </si>
+  <si>
+    <t>Валерьевна</t>
+  </si>
+  <si>
+    <t>Зинцов</t>
+  </si>
+  <si>
+    <t>Аристарх</t>
+  </si>
+  <si>
+    <t>Денисович</t>
+  </si>
+  <si>
+    <t>Зубцов</t>
+  </si>
+  <si>
+    <t>Алексей</t>
+  </si>
+  <si>
+    <t>Боярская</t>
+  </si>
+  <si>
+    <t>Екатерина</t>
+  </si>
+  <si>
+    <t>Дзарахохова</t>
+  </si>
+  <si>
+    <t>Милена</t>
+  </si>
+  <si>
+    <t>Тимуровна</t>
+  </si>
+  <si>
+    <t>Сабанчиева</t>
+  </si>
+  <si>
+    <t>Алина</t>
+  </si>
+  <si>
+    <t>Алимовна</t>
+  </si>
+  <si>
+    <t>Тардаскин</t>
+  </si>
+  <si>
+    <t>Халявицкий</t>
+  </si>
+  <si>
+    <t>Владислав</t>
+  </si>
+  <si>
+    <t>Боровков</t>
+  </si>
+  <si>
+    <t>Алексеевич</t>
+  </si>
+  <si>
+    <t>Неклюдова</t>
+  </si>
+  <si>
+    <t>Варвара</t>
+  </si>
+  <si>
+    <t>Коваленко</t>
+  </si>
+  <si>
+    <t>Олег</t>
+  </si>
+  <si>
+    <t>Фролов</t>
+  </si>
+  <si>
+    <t>Гусейнова</t>
+  </si>
+  <si>
+    <t>Милана</t>
+  </si>
+  <si>
+    <t>Георгиевич</t>
+  </si>
+  <si>
+    <t>Чемерисов</t>
+  </si>
+  <si>
+    <t>Егор</t>
+  </si>
+  <si>
+    <t>Тарлановна</t>
+  </si>
+  <si>
+    <t>Черный</t>
+  </si>
+  <si>
+    <t>Пирогова</t>
+  </si>
+  <si>
+    <t>Дарья</t>
+  </si>
+  <si>
+    <t>Витальевич</t>
+  </si>
+  <si>
+    <t>Гималтдинов</t>
+  </si>
+  <si>
+    <t>Алим</t>
+  </si>
+  <si>
+    <t>Константиновна</t>
+  </si>
+  <si>
+    <t>Жиклаева</t>
+  </si>
+  <si>
+    <t>Елена</t>
+  </si>
+  <si>
+    <t>Ильдарович</t>
+  </si>
+  <si>
+    <t>Боровой</t>
+  </si>
+  <si>
+    <t>Михайловна</t>
+  </si>
+  <si>
+    <t>Татарченко</t>
+  </si>
+  <si>
+    <t>Александра</t>
+  </si>
+  <si>
+    <t>Михайлович</t>
+  </si>
+  <si>
+    <t>Тищенков</t>
+  </si>
+  <si>
+    <t>Андреевна</t>
+  </si>
+  <si>
+    <t>Серегин</t>
+  </si>
+  <si>
+    <t>Владимир</t>
+  </si>
+  <si>
+    <t>Ахкамов</t>
+  </si>
+  <si>
+    <t>Андреевич</t>
+  </si>
+  <si>
+    <t>Проскуряков</t>
+  </si>
+  <si>
+    <t>Ильич</t>
+  </si>
+  <si>
+    <t>Рассказова</t>
+  </si>
+  <si>
+    <t>Васильевич</t>
+  </si>
+  <si>
+    <t>Королева</t>
+  </si>
+  <si>
+    <t>Новикова</t>
+  </si>
+  <si>
+    <t>Марина</t>
+  </si>
+  <si>
+    <t>Дмитриевна</t>
+  </si>
+  <si>
+    <t>Жуков</t>
+  </si>
+  <si>
+    <t>Роман</t>
+  </si>
+  <si>
+    <t>Александровна</t>
+  </si>
+  <si>
+    <t>Маркеева</t>
+  </si>
+  <si>
+    <t>Калинина</t>
+  </si>
+  <si>
+    <t>Алика</t>
+  </si>
+  <si>
+    <t>Виноградова</t>
+  </si>
+  <si>
+    <t>Алексеевна</t>
+  </si>
+  <si>
+    <t>Обушенко</t>
+  </si>
+  <si>
+    <t>Солодкина</t>
+  </si>
+  <si>
+    <t>Кирилловна</t>
+  </si>
+  <si>
+    <t>Никольская</t>
+  </si>
+  <si>
+    <t>Вероника</t>
+  </si>
+  <si>
+    <t>Львов</t>
+  </si>
+  <si>
+    <t>Иван</t>
+  </si>
+  <si>
+    <t>Ключевой</t>
+  </si>
+  <si>
+    <t>Романович</t>
+  </si>
+  <si>
+    <t>Кривошей</t>
+  </si>
+  <si>
+    <t>Валерьевич</t>
+  </si>
+  <si>
+    <t>Кравчук</t>
+  </si>
+  <si>
+    <t>Шестакова</t>
+  </si>
+  <si>
+    <t>Элина</t>
+  </si>
+  <si>
+    <t>Максимовна</t>
+  </si>
+  <si>
+    <t>Куц</t>
+  </si>
+  <si>
+    <t>Мария</t>
+  </si>
+  <si>
+    <t>Абдурахманов</t>
+  </si>
+  <si>
+    <t>Даниял</t>
+  </si>
+  <si>
+    <t>Заурович</t>
+  </si>
+  <si>
+    <t>Седых</t>
+  </si>
+  <si>
+    <t>Наталья</t>
+  </si>
+  <si>
+    <t>Валитова</t>
+  </si>
+  <si>
+    <t>Алмазовна</t>
+  </si>
+  <si>
+    <t>Либензон</t>
+  </si>
+  <si>
+    <t>Леонидович</t>
+  </si>
+  <si>
+    <t>Перчемли</t>
+  </si>
+  <si>
+    <t>Сергей</t>
+  </si>
+  <si>
+    <t>Кононенко</t>
+  </si>
+  <si>
+    <t>Ульяна</t>
+  </si>
+  <si>
+    <t>Денисовна</t>
+  </si>
+  <si>
+    <t>Довбыш</t>
+  </si>
+  <si>
+    <t>Никита</t>
+  </si>
+  <si>
+    <t>Сергеевич</t>
+  </si>
+  <si>
+    <t>Неяскин</t>
+  </si>
+  <si>
+    <t>Григорьевич</t>
+  </si>
+  <si>
+    <t>Журавлев</t>
+  </si>
+  <si>
+    <t>Бугаев</t>
+  </si>
+  <si>
+    <t>Ляхина</t>
+  </si>
+  <si>
+    <t>Валерия</t>
+  </si>
+  <si>
+    <t>Довгелло</t>
+  </si>
+  <si>
+    <t>Мамедов</t>
+  </si>
+  <si>
+    <t>Али</t>
+  </si>
+  <si>
+    <t>Рагимович</t>
+  </si>
+  <si>
+    <t>Радюшкина</t>
+  </si>
+  <si>
+    <t>Никонова</t>
+  </si>
+  <si>
+    <t>Анна</t>
+  </si>
+  <si>
+    <t>Романовна</t>
+  </si>
+  <si>
+    <t>Дягилев</t>
+  </si>
+  <si>
+    <t>Ростислав</t>
+  </si>
+  <si>
+    <t>Варданян</t>
+  </si>
+  <si>
+    <t>Вардан</t>
+  </si>
+  <si>
+    <t>Каренович</t>
+  </si>
+  <si>
+    <t>Тукфеева</t>
+  </si>
+  <si>
+    <t>Ринатовна</t>
+  </si>
+  <si>
+    <t>Свиридов</t>
+  </si>
+  <si>
+    <t>Намазова</t>
+  </si>
+  <si>
+    <t>Гюнель</t>
+  </si>
+  <si>
+    <t>Акиф кызы</t>
+  </si>
+  <si>
+    <t>Пивоваров</t>
+  </si>
+  <si>
+    <t>Артём</t>
+  </si>
+  <si>
+    <t>Бухтин</t>
+  </si>
+  <si>
+    <t>Ковалев</t>
+  </si>
+  <si>
+    <t>Георгий</t>
+  </si>
+  <si>
+    <t>Олегович</t>
+  </si>
+  <si>
+    <t>Агаронян</t>
+  </si>
+  <si>
+    <t>Регина</t>
+  </si>
+  <si>
+    <t>Асцатуровна</t>
+  </si>
+  <si>
+    <t>Мединец</t>
+  </si>
+  <si>
+    <t>Олеся</t>
+  </si>
+  <si>
+    <t>Агеенко</t>
+  </si>
+  <si>
+    <t>Арсений</t>
+  </si>
+  <si>
+    <t>Винникова</t>
+  </si>
+  <si>
+    <t>Захаровна</t>
+  </si>
+  <si>
+    <t>Альтерман</t>
+  </si>
+  <si>
+    <t>Овакимян</t>
+  </si>
+  <si>
+    <t>Артур</t>
+  </si>
+  <si>
+    <t>Артакович</t>
+  </si>
+  <si>
+    <t>Аникина </t>
+  </si>
+  <si>
+    <t>Ахравна</t>
+  </si>
+  <si>
+    <t>Облеков</t>
+  </si>
+  <si>
+    <t>Русланович</t>
+  </si>
+  <si>
+    <t>Атаева</t>
+  </si>
+  <si>
+    <t>Кавсарат</t>
+  </si>
+  <si>
+    <t>Руслановна</t>
+  </si>
+  <si>
+    <t>Куреза</t>
+  </si>
+  <si>
+    <t>Афанасьева</t>
+  </si>
+  <si>
+    <t>Павлов</t>
+  </si>
+  <si>
+    <t>Белова</t>
+  </si>
+  <si>
+    <t>Павловна</t>
+  </si>
+  <si>
+    <t>Барсукова</t>
+  </si>
+  <si>
+    <t>Юлия</t>
+  </si>
+  <si>
+    <t>Игоревна </t>
+  </si>
+  <si>
+    <t>Волощук</t>
+  </si>
+  <si>
+    <t>Берникова</t>
+  </si>
+  <si>
+    <t>Базба</t>
+  </si>
+  <si>
+    <t>Дато</t>
+  </si>
+  <si>
+    <t>Леварсович</t>
+  </si>
+  <si>
+    <t>Богуславская</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Костриков</t>
+  </si>
+  <si>
+    <t>Данила</t>
+  </si>
+  <si>
+    <t>Бортник</t>
+  </si>
+  <si>
+    <t>Артем</t>
+  </si>
+  <si>
+    <t>Анатольевич</t>
+  </si>
+  <si>
+    <t>Усманова</t>
+  </si>
+  <si>
+    <t>Ришатовна</t>
+  </si>
+  <si>
+    <t>Бочкова</t>
+  </si>
+  <si>
+    <t>Муракаев</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Буракова  </t>
+  </si>
+  <si>
+    <t>Тукачёв</t>
+  </si>
+  <si>
+    <t>Бурыгин</t>
+  </si>
+  <si>
+    <t>Илья</t>
+  </si>
+  <si>
+    <t>Дюкина</t>
+  </si>
+  <si>
+    <t>Васильев</t>
+  </si>
+  <si>
+    <t>Тимофей</t>
+  </si>
+  <si>
+    <t>Волкова</t>
+  </si>
+  <si>
+    <t>Станиславовна</t>
+  </si>
+  <si>
+    <t>Викторов </t>
+  </si>
+  <si>
+    <t>Евгений</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,6 +797,32 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -127,13 +846,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -450,17 +1184,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17BF5E3E-1987-4FB7-AE8A-00495C6179FA}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="17.7109375" style="7" customWidth="1"/>
     <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="65.7109375" bestFit="1" customWidth="1"/>
@@ -469,13 +1201,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -502,13 +1234,13 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="7">
         <v>3</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="7">
         <v>4</v>
       </c>
       <c r="D3" s="1">
@@ -528,13 +1260,13 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="D4">
@@ -551,6 +1283,1216 @@
       </c>
       <c r="H4" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A74" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A77" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A78" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A79" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A80" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A81" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A82" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A83" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A84" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A85" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A86" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A87" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A88" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A89" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A90" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A91" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A92" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A93" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A94" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A95" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A96" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A97" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A98" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A99" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A100" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A101" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A102" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A103" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A104" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A105" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A106" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A107" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A108" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A109" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A110" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A111" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A112" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A113" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A114" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
